--- a/Source.xlsx
+++ b/Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Babe\LET Flashcards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82588D91-47EF-4679-B60A-9D264BAA5E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E531246-D3A9-4B90-8474-FABF002F88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1095" windowWidth="16620" windowHeight="13575" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
     <t>Hehe</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>try lang ulet</t>
+  </si>
+  <si>
+    <t>All these are the beneficial effects of scientific knowledge EXCEPT</t>
   </si>
 </sst>
 </file>
@@ -127,13 +127,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,14 +483,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51CCE50-8203-4BEE-B297-88505FE25BEB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -495,44 +501,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E531246-D3A9-4B90-8474-FABF002F88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5ED416-5F20-44FD-A412-5BA582C5B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="4560" yWindow="3405" windowWidth="15600" windowHeight="10320" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5ED416-5F20-44FD-A412-5BA582C5B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E331604-722E-44D9-94E2-8F0367C7B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3405" windowWidth="15600" windowHeight="10320" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="7365" yWindow="4080" windowWidth="13710" windowHeight="8580" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,40 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>Hehe</t>
-  </si>
-  <si>
-    <t>sadadasdas</t>
-  </si>
-  <si>
-    <t>asdasdad</t>
-  </si>
-  <si>
-    <t>gdsdaas</t>
-  </si>
-  <si>
-    <t>fdgfsadsad</t>
-  </si>
-  <si>
     <t>try lang</t>
   </si>
   <si>
+    <t>new item</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>hsdfasfgdg</t>
+  </si>
+  <si>
+    <t>hdfdfacasd</t>
+  </si>
+  <si>
+    <t>add anything</t>
+  </si>
+  <si>
+    <t>Jessa Mae T. Nollan, LPT 2024</t>
+  </si>
+  <si>
+    <t>for flashcards</t>
+  </si>
+  <si>
+    <t>hahahahh</t>
+  </si>
+  <si>
+    <t>as many as u want</t>
+  </si>
+  <si>
     <t>sheeeshh</t>
-  </si>
-  <si>
-    <t>new item</t>
-  </si>
-  <si>
-    <t>try lang ulet</t>
-  </si>
-  <si>
-    <t>All these are the beneficial effects of scientific knowledge EXCEPT</t>
   </si>
 </sst>
 </file>
@@ -484,61 +484,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Source.xlsx
+++ b/Source.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Babe\LET-Flashcards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ALL FILES\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E331604-722E-44D9-94E2-8F0367C7B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58483B-1492-4AAF-A631-B393B0BE2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="4080" windowWidth="13710" windowHeight="8580" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="5175" yWindow="3135" windowWidth="13710" windowHeight="8580" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flashcards" sheetId="1" r:id="rId1"/>
+    <sheet name="Quiz-Type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Answer</t>
   </si>
@@ -72,6 +73,15 @@
   </si>
   <si>
     <t>sheeeshh</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Dapat questions ang magluwas igdi</t>
+  </si>
+  <si>
+    <t>tas igdi na options</t>
   </si>
 </sst>
 </file>
@@ -483,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51CCE50-8203-4BEE-B297-88505FE25BEB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,4 +554,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE7F38-5891-412E-9B7D-A65C3A7E2AE7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ALL FILES\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58483B-1492-4AAF-A631-B393B0BE2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390FB09-BC41-4209-932D-0B686F9F938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="13710" windowHeight="8580" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
@@ -560,13 +560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE7F38-5891-412E-9B7D-A65C3A7E2AE7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ALL FILES\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390FB09-BC41-4209-932D-0B686F9F938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D63CC2B-C13D-4FEC-A7E0-AA4396843F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3135" windowWidth="13710" windowHeight="8580" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Flashcards" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Answer</t>
   </si>
@@ -78,10 +78,64 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Dapat questions ang magluwas igdi</t>
-  </si>
-  <si>
-    <t>tas igdi na options</t>
+    <t>option A</t>
+  </si>
+  <si>
+    <t>Option B</t>
+  </si>
+  <si>
+    <t>Option C</t>
+  </si>
+  <si>
+    <t>Option D</t>
+  </si>
+  <si>
+    <t>All these are the beneficial effects of scientific knowledge EXCEPT</t>
+  </si>
+  <si>
+    <t>Making informed decisions</t>
+  </si>
+  <si>
+    <t>Solution to practical problems</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Pursuance of political agenda</t>
+  </si>
+  <si>
+    <t>Development of new technology</t>
+  </si>
+  <si>
+    <t>Vaccination against cholera, anthrax, and rabies is to Louis Pasteur, as vaccination against smallpox is to</t>
+  </si>
+  <si>
+    <t>Edward Jenner</t>
+  </si>
+  <si>
+    <t>Robert Kock</t>
+  </si>
+  <si>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>Anton Van Leeuwenhoek</t>
+  </si>
+  <si>
+    <t>What is the beneficial effect of scientific development on education?</t>
+  </si>
+  <si>
+    <t>Access to recreation</t>
+  </si>
+  <si>
+    <t>Access to knowledge source</t>
+  </si>
+  <si>
+    <t>Extended kinship</t>
+  </si>
+  <si>
+    <t>Family solidarity</t>
   </si>
 </sst>
 </file>
@@ -137,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -150,6 +204,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,65 +621,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE7F38-5891-412E-9B7D-A65C3A7E2AE7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ALL FILES\Babe\LET-Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D63CC2B-C13D-4FEC-A7E0-AA4396843F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE90A89-3F3A-4F50-8B01-CC4B7714EFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
+    <workbookView xWindow="8130" yWindow="3675" windowWidth="13710" windowHeight="8580" activeTab="1" xr2:uid="{2114A6D8-2F2C-45B4-8AC4-989CF9ED0F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Flashcards" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Answer</t>
   </si>
@@ -78,18 +78,6 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>option A</t>
-  </si>
-  <si>
-    <t>Option B</t>
-  </si>
-  <si>
-    <t>Option C</t>
-  </si>
-  <si>
-    <t>Option D</t>
-  </si>
-  <si>
     <t>All these are the beneficial effects of scientific knowledge EXCEPT</t>
   </si>
   <si>
@@ -136,6 +124,195 @@
   </si>
   <si>
     <t>Family solidarity</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>mitochondria</t>
+  </si>
+  <si>
+    <t>bioluminescence</t>
+  </si>
+  <si>
+    <t>Which of the following does not contribute to the greenhouse effect</t>
+  </si>
+  <si>
+    <t>water vapor</t>
+  </si>
+  <si>
+    <t>nitrous oxide</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>nitrogen gas</t>
+  </si>
+  <si>
+    <t>What is light produced by a chemical reaction within a living organism</t>
+  </si>
+  <si>
+    <t>biochemical reaction</t>
+  </si>
+  <si>
+    <t>bioluminescne</t>
+  </si>
+  <si>
+    <t>biological diversity</t>
+  </si>
+  <si>
+    <t>biomolecules</t>
+  </si>
+  <si>
+    <t>Steam rising, rain falling from clouds, and hot weather warming bodies of water are examples of the process called</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>conduction</t>
+  </si>
+  <si>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>To protect natural inorganic substances such as iron, ore, and other metals, there should be strict regulations on</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>hunting</t>
+  </si>
+  <si>
+    <t>logging</t>
+  </si>
+  <si>
+    <t>According to this school of thought, happiness can only be attained by a careful practice of apathy</t>
+  </si>
+  <si>
+    <t>stoicism</t>
+  </si>
+  <si>
+    <t>hedonism</t>
+  </si>
+  <si>
+    <t>theism</t>
+  </si>
+  <si>
+    <t>humanism</t>
+  </si>
+  <si>
+    <t>What is the most specific level in the taxonomy?</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>tagatanggap</t>
+  </si>
+  <si>
+    <t>tagaganap</t>
+  </si>
+  <si>
+    <t>layon</t>
+  </si>
+  <si>
+    <t>kagamitan</t>
+  </si>
+  <si>
+    <t>Ipinanggupit niya ang gunting sa lamesa. Ang pangungusap na ito ay nagpapakita ng komplementong ____</t>
+  </si>
+  <si>
+    <t>The very hot gas of nuclei and electrons is called ____</t>
+  </si>
+  <si>
+    <t>Pumanaw na</t>
+  </si>
+  <si>
+    <t>Sinipa ang balde</t>
+  </si>
+  <si>
+    <t>Nalilito</t>
+  </si>
+  <si>
+    <t>Natapon</t>
+  </si>
+  <si>
+    <t>Tumutukoy ito sa paggamit ng pera o cash flow  ng bansa. Anong barayti ng wika ang salitang cash flow?</t>
+  </si>
+  <si>
+    <t>Sosyolek</t>
+  </si>
+  <si>
+    <t>Ekolek</t>
+  </si>
+  <si>
+    <t>Jargon</t>
+  </si>
+  <si>
+    <t>Pidgin</t>
+  </si>
+  <si>
+    <t>Kinilalang sa pagbabago ng panulaang Pilipino ng bansa. Kilala sa kaniyang akda na "Ako ang Daigdig"</t>
+  </si>
+  <si>
+    <t>Alejandro G. Abadilla</t>
+  </si>
+  <si>
+    <t>Alexander Gumaca Abad</t>
+  </si>
+  <si>
+    <t>Alejandro K. Cruz</t>
+  </si>
+  <si>
+    <t>Alexis Abad Santos</t>
+  </si>
+  <si>
+    <t>"Diumano, isang ligaw na hayop ang nakikita sa dalampasigan!" Ang madalas na pagbigkas ng diumano ng isang sikat na reporter ay maituturing na ___</t>
+  </si>
+  <si>
+    <t>Dayalek</t>
+  </si>
+  <si>
+    <t>Idyolek</t>
+  </si>
+  <si>
+    <t>Binibigkas sa harap ng awdyens, maaari itong pinahandaan o biglaan.</t>
+  </si>
+  <si>
+    <t>anekdota</t>
+  </si>
+  <si>
+    <t>pabula</t>
+  </si>
+  <si>
+    <t>talambuhay</t>
+  </si>
+  <si>
+    <t>talumpati</t>
+  </si>
+  <si>
+    <t>Ano ang salin ng pariralang kicked the bucket?</t>
   </si>
 </sst>
 </file>
@@ -205,14 +382,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,113 +798,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE7F38-5891-412E-9B7D-A65C3A7E2AE7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" style="7" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
